--- a/controller/src/main/resources/jxls_templates/mubiaoguanli.xlsx
+++ b/controller/src/main/resources/jxls_templates/mubiaoguanli.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="21072" windowHeight="12312"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="21072" windowHeight="12312"/>
   </bookViews>
   <sheets>
     <sheet name="目標管理" sheetId="10" r:id="rId1"/>
@@ -42,8 +42,161 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>DONG</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:area(lastCell="T31")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:image(src="me" lastCell="D29")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:image(src="up" lastCell="E29")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:image(src="me" lastCell="G29")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:image(src="up" lastCell="H29")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:image(src="me" lastCell="J29")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:image(src="up" lastCell="K29")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:image(src="me" lastCell="M29")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:image(src="up" lastCell="N29")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
   <si>
     <t>所属</t>
   </si>
@@ -102,6 +255,10 @@
   </si>
   <si>
     <t>日付</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 印 </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -228,10 +385,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GOALMANEGEMENT2019</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>チェック時の成果を具体的に記入</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -261,7 +414,118 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${gmt.skill_rank}</t>
+    <t>GOALMANEGEMENT2020</t>
+  </si>
+  <si>
+    <t>GOALMANEGEMENT2019</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 印 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${user.centername}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${user.groupname}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${user.teamname}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${gmt.specific_goals_year1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${gmt.specific_goals_sep1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${gmt.specific_goals_dec1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${gmt.specific_goals_mar1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${gmt.specific_goals_year2}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${gmt.specific_goals_sep2}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${gmt.specific_goals_dec2}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${gmt.specific_goals_mar2}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${gmt.specific_goals_year3}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${gmt.specific_goals_sep3}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${gmt.specific_goals_dec3}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${gmt.specific_goals_mar3}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${gmt.your_own_goals_year}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${gmt.your_own_goals_sep}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${gmt.your_own_goals_dec}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${gmt.your_own_goals_mar}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${gmt.business_results_sep}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${gmt.interview_results_dec}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${gmt.business_results_mar}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${gmt.interview_results_year}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${gmt.interview_results_sep}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${gmt.business_results_dec}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${gmt.interview_results_mar}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -270,111 +534,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${gmt.specific_goals_year1}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${gmt.specific_goals_year2}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${gmt.specific_goals_year3}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${gmt.your_own_goals_year}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${gmt.interview_results_year}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${gmt.specific_goals_sep1}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${gmt.specific_goals_sep2}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${gmt.specific_goals_sep3}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${gmt.your_own_goals_sep}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${gmt.business_results_sep}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${gmt.interview_results_sep}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${gmt.specific_goals_dec1}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${gmt.specific_goals_dec2}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${gmt.specific_goals_dec3}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${gmt.your_own_goals_dec}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${gmt.interview_results_dec}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${gmt.business_results_dec}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${gmt.specific_goals_mar1}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${gmt.specific_goals_mar2}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${gmt.specific_goals_mar3}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${gmt.your_own_goals_mar}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${gmt.business_results_mar}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${gmt.interview_results_mar}</t>
+    <t>${gmt.skill_rank}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${gmt.application_date1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${gmt.application_date2}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${gmt.application_date3}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${gmt.application_date4}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>${user.customername}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${user.centername}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${user.groupname}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${user.teamname}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -386,7 +566,7 @@
     <numFmt numFmtId="176" formatCode=";;;"/>
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -453,13 +633,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="HGP創英角ｺﾞｼｯｸUB"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
       <sz val="8"/>
       <color indexed="9"/>
       <name val="HGPGothicM"/>
@@ -518,6 +691,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="HGP創英角ｺﾞｼｯｸUB"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -542,12 +730,91 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -560,6 +827,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -572,188 +854,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -771,10 +871,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -784,9 +902,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -800,6 +916,41 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -808,6 +959,43 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -931,7 +1119,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -972,7 +1160,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -987,19 +1175,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1007,122 +1195,230 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1130,217 +1426,105 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1377,22 +1561,28 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="13472" name="SIGN"/>
+        <xdr:cNvPr id="13428" name="SIGN"/>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15984682" y="13200611"/>
-          <a:ext cx="475903" cy="489065"/>
+          <a:off x="16225157" y="13173891"/>
+          <a:ext cx="477883" cy="492035"/>
           <a:chOff x="859" y="2"/>
           <a:chExt cx="49" cy="51"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="FBOX"/>
+          <xdr:cNvPr id="11" name="FBOX">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31716C17-4967-4C74-A81A-32B08861AFD0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1442,7 +1632,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="LBOX"/>
+          <xdr:cNvPr id="12" name="LBOX">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC99D1DE-4A4B-49BF-A81A-D076BAAA364E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1459,37 +1655,34 @@
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:extLst/>
         </xdr:spPr>
         <xdr:txBody>
           <a:bodyPr vertOverflow="clip" vert="wordArtVertRtl" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:lnSpc>
-                <a:spcPts val="1500"/>
-              </a:lnSpc>
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>${user.cus</a:t>
+              <a:t>趙</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="RBOX"/>
+          <xdr:cNvPr id="13" name="RBOX">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79335FF-14CC-42C2-9FF0-B6939FAEF840}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1506,31 +1699,22 @@
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:extLst/>
         </xdr:spPr>
         <xdr:txBody>
           <a:bodyPr vertOverflow="clip" vert="wordArtVertRtl" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:lnSpc>
-                <a:spcPts val="1500"/>
-              </a:lnSpc>
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>tomername}</a:t>
+              <a:t>博</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1552,7 +1736,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1627D56E-11F1-4D0C-B2AC-5E29D3FD8946}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1594,278 +1784,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>937260</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13474" name="SIGN$D$29"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2743200" y="13182600"/>
-          <a:ext cx="998220" cy="777240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>937260</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13475" name="SIGN$G$29"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5623560" y="13182600"/>
-          <a:ext cx="998220" cy="777240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>937260</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13476" name="SIGN$J$29"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8503920" y="13182600"/>
-          <a:ext cx="998220" cy="777240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>937260</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13477" name="SIGN$M$29"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11384280" y="13182600"/>
-          <a:ext cx="998220" cy="777240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2157,52 +2075,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AD31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A18" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.6640625" defaultRowHeight="24.9" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.21875" style="1" customWidth="1"/>
-    <col min="3" max="19" width="14" style="1" customWidth="1"/>
+    <col min="3" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="1" customWidth="1"/>
+    <col min="10" max="19" width="14" style="1" customWidth="1"/>
     <col min="20" max="21" width="6.6640625" style="1" customWidth="1"/>
     <col min="22" max="16384" width="7.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="7.5" customHeight="1">
-      <c r="A1" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="45"/>
+      <c r="A1" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="44"/>
     </row>
     <row r="2" spans="1:30" ht="24.9" customHeight="1">
-      <c r="B2" s="81" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
+      <c r="A2" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
     </row>
@@ -2229,222 +2154,222 @@
       <c r="U3" s="10"/>
     </row>
     <row r="4" spans="1:30" s="2" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="62" t="s">
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="62" t="s">
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
     </row>
     <row r="5" spans="1:30" s="2" customFormat="1" ht="35.25" customHeight="1">
-      <c r="B5" s="66"/>
-      <c r="C5" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
     </row>
     <row r="6" spans="1:30" s="2" customFormat="1" ht="9.9" customHeight="1">
-      <c r="B6" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="68" t="s">
+      <c r="B6" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="87" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="88"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
+      <c r="I6" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="77"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
     </row>
     <row r="7" spans="1:30" s="2" customFormat="1" ht="43.5" customHeight="1">
-      <c r="B7" s="68"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
     </row>
     <row r="8" spans="1:30" s="3" customFormat="1" ht="10.5" customHeight="1">
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
     </row>
     <row r="9" spans="1:30" s="6" customFormat="1" ht="54" customHeight="1">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="91" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="93"/>
+      <c r="C9" s="116" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="118"/>
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
     </row>
     <row r="10" spans="1:30" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B10" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="60" t="s">
+      <c r="B10" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="60" t="s">
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="60" t="s">
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="60" t="s">
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="90"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="69"/>
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
     </row>
     <row r="11" spans="1:30" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B11" s="70"/>
-      <c r="C11" s="60" t="s">
+      <c r="B11" s="47"/>
+      <c r="C11" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="60" t="s">
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="60" t="s">
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="90"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="69"/>
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="4"/>
@@ -2458,32 +2383,32 @@
       <c r="AD11" s="4"/>
     </row>
     <row r="12" spans="1:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B12" s="70"/>
-      <c r="C12" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="72" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="49"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="51"/>
       <c r="T12" s="16"/>
       <c r="U12" s="17"/>
       <c r="V12" s="5"/>
@@ -2497,24 +2422,24 @@
       <c r="AD12" s="4"/>
     </row>
     <row r="13" spans="1:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B13" s="70"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="52"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="54"/>
       <c r="T13" s="16"/>
       <c r="U13" s="17"/>
       <c r="V13" s="5"/>
@@ -2528,24 +2453,24 @@
       <c r="AD13" s="4"/>
     </row>
     <row r="14" spans="1:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B14" s="70"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="55"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="57"/>
       <c r="T14" s="16"/>
       <c r="U14" s="18"/>
       <c r="V14" s="4"/>
@@ -2559,32 +2484,32 @@
       <c r="AD14" s="4"/>
     </row>
     <row r="15" spans="1:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B15" s="70"/>
-      <c r="C15" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="49"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="51"/>
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
       <c r="V15" s="4"/>
@@ -2598,24 +2523,24 @@
       <c r="AD15" s="4"/>
     </row>
     <row r="16" spans="1:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B16" s="70"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="52"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="54"/>
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
       <c r="V16" s="4"/>
@@ -2629,24 +2554,24 @@
       <c r="AD16" s="4"/>
     </row>
     <row r="17" spans="2:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B17" s="70"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="55"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="57"/>
       <c r="T17" s="16"/>
       <c r="U17" s="17"/>
       <c r="V17" s="5"/>
@@ -2660,32 +2585,32 @@
       <c r="AD17" s="4"/>
     </row>
     <row r="18" spans="2:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B18" s="70"/>
-      <c r="C18" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="47" t="s">
+      <c r="B18" s="47"/>
+      <c r="C18" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="49"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="51"/>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
       <c r="V18" s="4"/>
@@ -2699,24 +2624,24 @@
       <c r="AD18" s="4"/>
     </row>
     <row r="19" spans="2:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B19" s="70"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="52"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="54"/>
       <c r="T19" s="16"/>
       <c r="U19" s="16"/>
       <c r="V19" s="4"/>
@@ -2730,86 +2655,86 @@
       <c r="AD19" s="4"/>
     </row>
     <row r="20" spans="2:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B20" s="71"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="55"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="57"/>
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
     </row>
     <row r="21" spans="2:30" s="3" customFormat="1" ht="58.5" customHeight="1">
-      <c r="B21" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="98" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="58"/>
+      <c r="B21" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" s="88"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="89"/>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
     </row>
     <row r="22" spans="2:30" s="3" customFormat="1" ht="67.5" customHeight="1">
-      <c r="B22" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="101"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="56" t="s">
+      <c r="B22" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="95"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="58"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="89"/>
       <c r="T22" s="19"/>
       <c r="U22" s="16"/>
     </row>
@@ -2836,34 +2761,34 @@
       <c r="U23" s="16"/>
     </row>
     <row r="24" spans="2:30" s="3" customFormat="1" ht="47.25" customHeight="1">
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="98" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="104" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="94" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="95" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="86"/>
       <c r="T24" s="23"/>
       <c r="U24" s="23"/>
       <c r="V24" s="8"/>
@@ -2874,34 +2799,34 @@
       <c r="AA24" s="8"/>
     </row>
     <row r="25" spans="2:30" s="3" customFormat="1" ht="67.5" customHeight="1">
-      <c r="B25" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="118" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="58"/>
+      <c r="B25" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="109" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="89"/>
       <c r="T25" s="23"/>
       <c r="U25" s="23"/>
       <c r="V25" s="8"/>
@@ -2912,59 +2837,59 @@
       <c r="AA25" s="8"/>
     </row>
     <row r="26" spans="2:30" s="3" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
-      <c r="O26" s="110"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="110"/>
-      <c r="R26" s="110"/>
-      <c r="S26" s="110"/>
-      <c r="T26" s="117"/>
-      <c r="U26" s="117"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="107"/>
+      <c r="N26" s="107"/>
+      <c r="O26" s="103"/>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="103"/>
+      <c r="R26" s="103"/>
+      <c r="S26" s="103"/>
+      <c r="T26" s="108"/>
+      <c r="U26" s="108"/>
     </row>
     <row r="27" spans="2:30" s="3" customFormat="1" ht="39" customHeight="1">
-      <c r="B27" s="113" t="s">
+      <c r="B27" s="104" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="96" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="97"/>
+        <v>33</v>
+      </c>
+      <c r="D27" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="113"/>
       <c r="F27" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="108"/>
+        <v>34</v>
+      </c>
+      <c r="G27" s="114" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="115"/>
       <c r="I27" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="J27" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="97"/>
+      <c r="K27" s="113"/>
       <c r="L27" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="96" t="s">
+      <c r="M27" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="N27" s="97"/>
+      <c r="N27" s="113"/>
       <c r="O27" s="24"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
@@ -2974,24 +2899,24 @@
       <c r="U27" s="14"/>
     </row>
     <row r="28" spans="2:30" s="3" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B28" s="114"/>
+      <c r="B28" s="105"/>
       <c r="C28" s="28" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F28" s="28" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I28" s="28" t="s">
         <v>16</v>
@@ -3000,7 +2925,7 @@
         <v>6</v>
       </c>
       <c r="K28" s="26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L28" s="28" t="s">
         <v>16</v>
@@ -3009,7 +2934,7 @@
         <v>6</v>
       </c>
       <c r="N28" s="30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
@@ -3020,34 +2945,42 @@
       <c r="U28" s="14"/>
     </row>
     <row r="29" spans="2:30" s="3" customFormat="1" ht="61.5" customHeight="1" thickBot="1">
-      <c r="B29" s="115"/>
-      <c r="C29" s="31">
-        <v>43951.474988425929</v>
-      </c>
-      <c r="D29" s="32"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>17</v>
+      </c>
       <c r="E29" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="31">
-        <v>43951.475069444445</v>
-      </c>
-      <c r="G29" s="32"/>
+      <c r="F29" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="34">
-        <v>43951.475092592591</v>
-      </c>
-      <c r="J29" s="32"/>
+      <c r="I29" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="J29" s="32" t="s">
+        <v>17</v>
+      </c>
       <c r="K29" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L29" s="34">
-        <v>43951.475127314814</v>
-      </c>
-      <c r="M29" s="32"/>
-      <c r="N29" s="35" t="s">
-        <v>21</v>
+      <c r="L29" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="M29" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="N29" s="34" t="s">
+        <v>22</v>
       </c>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
@@ -3058,43 +2991,48 @@
       <c r="U29" s="14"/>
     </row>
     <row r="30" spans="2:30" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="B30" s="112" t="s">
+      <c r="B30" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="112"/>
-      <c r="M30" s="112"/>
-      <c r="N30" s="112"/>
-      <c r="O30" s="112"/>
-      <c r="P30" s="112"/>
-      <c r="Q30" s="112"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="102"/>
+      <c r="N30" s="102"/>
+      <c r="O30" s="102"/>
+      <c r="P30" s="102"/>
+      <c r="Q30" s="102"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
     </row>
     <row r="31" spans="2:30" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="R31" s="111"/>
-      <c r="S31" s="111"/>
-      <c r="T31" s="111"/>
-      <c r="U31" s="111"/>
+      <c r="R31" s="101"/>
+      <c r="S31" s="101"/>
+      <c r="T31" s="101"/>
+      <c r="U31" s="101"/>
     </row>
   </sheetData>
-  <sheetProtection password="947E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="64">
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="C6:G7"/>
     <mergeCell ref="L10:O10"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="L12:O14"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="C9:S9"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="P12:S14"/>
     <mergeCell ref="R31:U31"/>
     <mergeCell ref="B30:Q30"/>
     <mergeCell ref="B26:F26"/>
@@ -3105,26 +3043,28 @@
     <mergeCell ref="R26:U26"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="M27:N27"/>
-    <mergeCell ref="L18:O20"/>
+    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="H24:K24"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="C24:G24"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="M26:Q26"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="P12:S14"/>
     <mergeCell ref="P15:S17"/>
     <mergeCell ref="L24:O24"/>
     <mergeCell ref="P24:S24"/>
     <mergeCell ref="H15:K17"/>
+    <mergeCell ref="L15:O17"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="P18:S20"/>
+    <mergeCell ref="L18:O20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:O21"/>
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="M6:O7"/>
     <mergeCell ref="L5:O5"/>
@@ -3132,28 +3072,21 @@
     <mergeCell ref="I6:K7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C11:F11"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G7"/>
     <mergeCell ref="B10:B20"/>
     <mergeCell ref="H12:K14"/>
     <mergeCell ref="C15:G17"/>
     <mergeCell ref="C18:G20"/>
     <mergeCell ref="H10:K10"/>
-    <mergeCell ref="C9:S9"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="H8:J8"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="L15:O17"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="L22:O22"/>
     <mergeCell ref="H18:K20"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="P18:S20"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3161,5 +3094,6 @@
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/controller/src/main/resources/jxls_templates/mubiaoguanli.xlsx
+++ b/controller/src/main/resources/jxls_templates/mubiaoguanli.xlsx
@@ -329,13 +329,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2019年度目標管理シート</t>
-    <rPh sb="4" eb="6">
-      <t>ネンド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>計画         
 策定時</t>
     <phoneticPr fontId="1"/>
@@ -555,6 +548,13 @@
   </si>
   <si>
     <t>${user.customername}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${now}年度目標管理シート</t>
+    <rPh sb="4" eb="6">
+      <t>ネンド</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1266,6 +1266,221 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1280,42 +1495,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1346,185 +1525,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1579,7 +1579,7 @@
           <xdr:cNvPr id="11" name="FBOX">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31716C17-4967-4C74-A81A-32B08861AFD0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31716C17-4967-4C74-A81A-32B08861AFD0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1635,7 +1635,7 @@
           <xdr:cNvPr id="12" name="LBOX">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC99D1DE-4A4B-49BF-A81A-D076BAAA364E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC99D1DE-4A4B-49BF-A81A-D076BAAA364E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1679,7 +1679,7 @@
           <xdr:cNvPr id="13" name="RBOX">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79335FF-14CC-42C2-9FF0-B6939FAEF840}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B79335FF-14CC-42C2-9FF0-B6939FAEF840}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1739,7 +1739,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1627D56E-11F1-4D0C-B2AC-5E29D3FD8946}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1627D56E-11F1-4D0C-B2AC-5E29D3FD8946}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2081,8 +2081,8 @@
   </sheetPr>
   <dimension ref="A1:AD31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A18" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.6640625" defaultRowHeight="24.9" customHeight="1"/>
@@ -2100,34 +2100,34 @@
   <sheetData>
     <row r="1" spans="1:30" ht="7.5" customHeight="1">
       <c r="A1" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="44"/>
     </row>
     <row r="2" spans="1:30" ht="24.9" customHeight="1">
       <c r="A2" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
+        <v>40</v>
+      </c>
+      <c r="B2" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
     </row>
@@ -2154,28 +2154,28 @@
       <c r="U3" s="10"/>
     </row>
     <row r="4" spans="1:30" s="2" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="79" t="s">
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="79" t="s">
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="81"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="104"/>
       <c r="P4" s="36"/>
       <c r="Q4" s="37"/>
       <c r="R4" s="37"/>
@@ -2184,26 +2184,26 @@
       <c r="U4" s="12"/>
     </row>
     <row r="5" spans="1:30" s="2" customFormat="1" ht="35.25" customHeight="1">
-      <c r="B5" s="83"/>
-      <c r="C5" s="73" t="s">
+      <c r="B5" s="106"/>
+      <c r="C5" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="73" t="s">
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="75"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="98"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="38"/>
@@ -2212,28 +2212,28 @@
       <c r="U5" s="12"/>
     </row>
     <row r="6" spans="1:30" s="2" customFormat="1" ht="9.9" customHeight="1">
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="76" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="85" t="s">
+      <c r="C6" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="76" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="77"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
+      <c r="I6" s="99" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="100"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="38"/>
@@ -2242,20 +2242,20 @@
       <c r="U6" s="12"/>
     </row>
     <row r="7" spans="1:30" s="2" customFormat="1" ht="43.5" customHeight="1">
-      <c r="B7" s="85"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
       <c r="P7" s="38"/>
       <c r="Q7" s="38"/>
       <c r="R7" s="38"/>
@@ -2270,9 +2270,9 @@
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
       <c r="M8" s="35"/>
@@ -2289,87 +2289,87 @@
       <c r="B9" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="116" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="118"/>
+      <c r="C9" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="61"/>
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
     </row>
     <row r="10" spans="1:30" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B10" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="67" t="s">
+      <c r="B10" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
       <c r="G10" s="40"/>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="67" t="s">
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="67" t="s">
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="69"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="48"/>
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
     </row>
     <row r="11" spans="1:30" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B11" s="47"/>
-      <c r="C11" s="67" t="s">
+      <c r="B11" s="109"/>
+      <c r="C11" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
       <c r="G11" s="40"/>
-      <c r="H11" s="67" t="s">
+      <c r="H11" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="67" t="s">
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="69"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="48"/>
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="4"/>
@@ -2383,32 +2383,32 @@
       <c r="AD11" s="4"/>
     </row>
     <row r="12" spans="1:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B12" s="47"/>
-      <c r="C12" s="58" t="s">
+      <c r="B12" s="109"/>
+      <c r="C12" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="49" t="s">
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="58" t="s">
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="52"/>
       <c r="T12" s="16"/>
       <c r="U12" s="17"/>
       <c r="V12" s="5"/>
@@ -2422,24 +2422,24 @@
       <c r="AD12" s="4"/>
     </row>
     <row r="13" spans="1:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B13" s="47"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="54"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="55"/>
       <c r="T13" s="16"/>
       <c r="U13" s="17"/>
       <c r="V13" s="5"/>
@@ -2453,24 +2453,24 @@
       <c r="AD13" s="4"/>
     </row>
     <row r="14" spans="1:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B14" s="47"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="57"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="58"/>
       <c r="T14" s="16"/>
       <c r="U14" s="18"/>
       <c r="V14" s="4"/>
@@ -2484,32 +2484,32 @@
       <c r="AD14" s="4"/>
     </row>
     <row r="15" spans="1:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B15" s="47"/>
-      <c r="C15" s="58" t="s">
+      <c r="B15" s="109"/>
+      <c r="C15" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="58" t="s">
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="58" t="s">
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="52"/>
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
       <c r="V15" s="4"/>
@@ -2523,24 +2523,24 @@
       <c r="AD15" s="4"/>
     </row>
     <row r="16" spans="1:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="54"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="55"/>
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
       <c r="V16" s="4"/>
@@ -2554,24 +2554,24 @@
       <c r="AD16" s="4"/>
     </row>
     <row r="17" spans="2:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B17" s="47"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="57"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="58"/>
       <c r="T17" s="16"/>
       <c r="U17" s="17"/>
       <c r="V17" s="5"/>
@@ -2585,32 +2585,32 @@
       <c r="AD17" s="4"/>
     </row>
     <row r="18" spans="2:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B18" s="47"/>
-      <c r="C18" s="58" t="s">
+      <c r="B18" s="109"/>
+      <c r="C18" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="58" t="s">
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="58" t="s">
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="52"/>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
       <c r="V18" s="4"/>
@@ -2624,24 +2624,24 @@
       <c r="AD18" s="4"/>
     </row>
     <row r="19" spans="2:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B19" s="47"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="54"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="55"/>
       <c r="T19" s="16"/>
       <c r="U19" s="16"/>
       <c r="V19" s="4"/>
@@ -2655,86 +2655,86 @@
       <c r="AD19" s="4"/>
     </row>
     <row r="20" spans="2:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B20" s="48"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="57"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="58"/>
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
     </row>
     <row r="21" spans="2:30" s="3" customFormat="1" ht="58.5" customHeight="1">
       <c r="B21" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="87" t="s">
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="90" t="s">
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="89"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="68"/>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
     </row>
     <row r="22" spans="2:30" s="3" customFormat="1" ht="67.5" customHeight="1">
       <c r="B22" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="95"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="87" t="s">
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="88"/>
-      <c r="S22" s="89"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="68"/>
       <c r="T22" s="19"/>
       <c r="U22" s="16"/>
     </row>
@@ -2764,31 +2764,31 @@
       <c r="B24" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="98" t="s">
+      <c r="C24" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="91" t="s">
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="86" t="s">
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="86" t="s">
+      <c r="M24" s="91"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="91"/>
+      <c r="P24" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="86"/>
+      <c r="Q24" s="91"/>
+      <c r="R24" s="91"/>
+      <c r="S24" s="91"/>
       <c r="T24" s="23"/>
       <c r="U24" s="23"/>
       <c r="V24" s="8"/>
@@ -2802,31 +2802,31 @@
       <c r="B25" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="109" t="s">
+      <c r="C25" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="87" t="s">
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="87" t="s">
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q25" s="88"/>
-      <c r="R25" s="88"/>
-      <c r="S25" s="89"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="68"/>
       <c r="T25" s="23"/>
       <c r="U25" s="23"/>
       <c r="V25" s="8"/>
@@ -2837,59 +2837,59 @@
       <c r="AA25" s="8"/>
     </row>
     <row r="26" spans="2:30" s="3" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="107"/>
-      <c r="N26" s="107"/>
-      <c r="O26" s="103"/>
-      <c r="P26" s="103"/>
-      <c r="Q26" s="103"/>
-      <c r="R26" s="103"/>
-      <c r="S26" s="103"/>
-      <c r="T26" s="108"/>
-      <c r="U26" s="108"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="65"/>
+      <c r="S26" s="65"/>
+      <c r="T26" s="73"/>
+      <c r="U26" s="73"/>
     </row>
     <row r="27" spans="2:30" s="3" customFormat="1" ht="39" customHeight="1">
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="69" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="78"/>
+      <c r="F27" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="112" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="113"/>
-      <c r="F27" s="27" t="s">
+      <c r="G27" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="80"/>
+      <c r="I27" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="114" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="115"/>
-      <c r="I27" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="J27" s="112" t="s">
+      <c r="J27" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="113"/>
+      <c r="K27" s="78"/>
       <c r="L27" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="112" t="s">
+      <c r="M27" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="N27" s="113"/>
+      <c r="N27" s="78"/>
       <c r="O27" s="24"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
@@ -2899,7 +2899,7 @@
       <c r="U27" s="14"/>
     </row>
     <row r="28" spans="2:30" s="3" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B28" s="105"/>
+      <c r="B28" s="70"/>
       <c r="C28" s="28" t="s">
         <v>16</v>
       </c>
@@ -2945,9 +2945,9 @@
       <c r="U28" s="14"/>
     </row>
     <row r="29" spans="2:30" s="3" customFormat="1" ht="61.5" customHeight="1" thickBot="1">
-      <c r="B29" s="106"/>
+      <c r="B29" s="71"/>
       <c r="C29" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" s="32" t="s">
         <v>17</v>
@@ -2956,7 +2956,7 @@
         <v>7</v>
       </c>
       <c r="F29" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G29" s="32" t="s">
         <v>17</v>
@@ -2965,7 +2965,7 @@
         <v>7</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J29" s="32" t="s">
         <v>17</v>
@@ -2974,10 +2974,10 @@
         <v>7</v>
       </c>
       <c r="L29" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M29" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N29" s="34" t="s">
         <v>22</v>
@@ -2991,48 +2991,76 @@
       <c r="U29" s="14"/>
     </row>
     <row r="30" spans="2:30" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="B30" s="102" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="102"/>
-      <c r="K30" s="102"/>
-      <c r="L30" s="102"/>
-      <c r="M30" s="102"/>
-      <c r="N30" s="102"/>
-      <c r="O30" s="102"/>
-      <c r="P30" s="102"/>
-      <c r="Q30" s="102"/>
+      <c r="B30" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
     </row>
     <row r="31" spans="2:30" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="R31" s="101"/>
-      <c r="S31" s="101"/>
-      <c r="T31" s="101"/>
-      <c r="U31" s="101"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="63"/>
+      <c r="T31" s="63"/>
+      <c r="U31" s="63"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="64">
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="L12:O14"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="C9:S9"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="P12:S14"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="H12:K14"/>
+    <mergeCell ref="C15:G17"/>
+    <mergeCell ref="C18:G20"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H18:K20"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="M6:O7"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="I6:K7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G7"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="P15:S17"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="H15:K17"/>
+    <mergeCell ref="L15:O17"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="P18:S20"/>
+    <mergeCell ref="L18:O20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:O21"/>
     <mergeCell ref="R31:U31"/>
     <mergeCell ref="B30:Q30"/>
     <mergeCell ref="B26:F26"/>
@@ -3049,44 +3077,16 @@
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="L25:O25"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="P15:S17"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="H15:K17"/>
-    <mergeCell ref="L15:O17"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="P18:S20"/>
-    <mergeCell ref="L18:O20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="B2:S2"/>
-    <mergeCell ref="M6:O7"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="I6:K7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G7"/>
-    <mergeCell ref="B10:B20"/>
-    <mergeCell ref="H12:K14"/>
-    <mergeCell ref="C15:G17"/>
-    <mergeCell ref="C18:G20"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H18:K20"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="L12:O14"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="C9:S9"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="P12:S14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/controller/src/main/resources/jxls_templates/mubiaoguanli.xlsx
+++ b/controller/src/main/resources/jxls_templates/mubiaoguanli.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_Code\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="21072" windowHeight="12312"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="21075" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="目標管理" sheetId="10" r:id="rId1"/>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>所属</t>
   </si>
@@ -219,9 +219,6 @@
     <t>本人</t>
   </si>
   <si>
-    <t>印</t>
-  </si>
-  <si>
     <t>センター</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -255,10 +252,6 @@
   </si>
   <si>
     <t>日付</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 印 </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -281,10 +274,6 @@
   </si>
   <si>
     <t>具体的目標を記入</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>印</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -411,10 +400,6 @@
   </si>
   <si>
     <t>GOALMANEGEMENT2019</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 印 </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -707,21 +692,15 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="32">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -806,19 +785,28 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -830,30 +818,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -1119,7 +1083,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1160,7 +1124,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -1178,16 +1142,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1195,7 +1159,7 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1210,10 +1174,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1224,18 +1188,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1247,16 +1203,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
@@ -1266,235 +1222,247 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1502,15 +1470,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1518,11 +1478,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1568,8 +1524,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16225157" y="13173891"/>
-          <a:ext cx="477883" cy="492035"/>
+          <a:off x="17917886" y="13255534"/>
+          <a:ext cx="581297" cy="483870"/>
           <a:chOff x="859" y="2"/>
           <a:chExt cx="49" cy="51"/>
         </a:xfrm>
@@ -2081,53 +2037,51 @@
   </sheetPr>
   <dimension ref="A1:AD31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:K7"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.6640625" defaultRowHeight="24.9" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="1" customWidth="1"/>
     <col min="3" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
     <col min="7" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="1" customWidth="1"/>
     <col min="10" max="19" width="14" style="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="7.6640625" style="1"/>
+    <col min="20" max="21" width="6.625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="7.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="7.5" customHeight="1">
-      <c r="A1" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="44"/>
+      <c r="A1" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="42"/>
     </row>
-    <row r="2" spans="1:30" ht="24.9" customHeight="1">
-      <c r="A2" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="93" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
+    <row r="2" spans="1:30" ht="24.95" customHeight="1">
+      <c r="A2" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
     </row>
@@ -2154,222 +2108,222 @@
       <c r="U3" s="10"/>
     </row>
     <row r="4" spans="1:30" s="2" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="102" t="s">
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="102" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
     </row>
     <row r="5" spans="1:30" s="2" customFormat="1" ht="35.25" customHeight="1">
-      <c r="B5" s="106"/>
-      <c r="C5" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="96" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="94" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
     </row>
-    <row r="6" spans="1:30" s="2" customFormat="1" ht="9.9" customHeight="1">
-      <c r="B6" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="49" t="s">
+    <row r="6" spans="1:30" s="2" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="B6" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="99" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="100"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
+      <c r="I6" s="97" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="98"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
     </row>
     <row r="7" spans="1:30" s="2" customFormat="1" ht="43.5" customHeight="1">
-      <c r="B7" s="49"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
     </row>
     <row r="8" spans="1:30" s="3" customFormat="1" ht="10.5" customHeight="1">
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
     </row>
     <row r="9" spans="1:30" s="6" customFormat="1" ht="54" customHeight="1">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="61"/>
+      <c r="C9" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="59"/>
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
     </row>
     <row r="10" spans="1:30" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B10" s="108" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="46" t="s">
+      <c r="B10" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="46" t="s">
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="46" t="s">
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="48"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="46"/>
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
     </row>
     <row r="11" spans="1:30" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B11" s="109"/>
-      <c r="C11" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="46" t="s">
+      <c r="B11" s="107"/>
+      <c r="C11" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="48"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="46"/>
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="4"/>
@@ -2383,32 +2337,32 @@
       <c r="AD11" s="4"/>
     </row>
     <row r="12" spans="1:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B12" s="109"/>
-      <c r="C12" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="111" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="52"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="50"/>
       <c r="T12" s="16"/>
       <c r="U12" s="17"/>
       <c r="V12" s="5"/>
@@ -2422,24 +2376,24 @@
       <c r="AD12" s="4"/>
     </row>
     <row r="13" spans="1:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B13" s="109"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="55"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="53"/>
       <c r="T13" s="16"/>
       <c r="U13" s="17"/>
       <c r="V13" s="5"/>
@@ -2453,24 +2407,24 @@
       <c r="AD13" s="4"/>
     </row>
     <row r="14" spans="1:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B14" s="109"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="58"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="56"/>
       <c r="T14" s="16"/>
       <c r="U14" s="18"/>
       <c r="V14" s="4"/>
@@ -2484,32 +2438,32 @@
       <c r="AD14" s="4"/>
     </row>
     <row r="15" spans="1:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B15" s="109"/>
-      <c r="C15" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="52"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="50"/>
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
       <c r="V15" s="4"/>
@@ -2523,24 +2477,24 @@
       <c r="AD15" s="4"/>
     </row>
     <row r="16" spans="1:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B16" s="109"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="55"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="53"/>
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
       <c r="V16" s="4"/>
@@ -2554,24 +2508,24 @@
       <c r="AD16" s="4"/>
     </row>
     <row r="17" spans="2:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B17" s="109"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="58"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="56"/>
       <c r="T17" s="16"/>
       <c r="U17" s="17"/>
       <c r="V17" s="5"/>
@@ -2585,32 +2539,32 @@
       <c r="AD17" s="4"/>
     </row>
     <row r="18" spans="2:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B18" s="109"/>
-      <c r="C18" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="52"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="50"/>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
       <c r="V18" s="4"/>
@@ -2624,24 +2578,24 @@
       <c r="AD18" s="4"/>
     </row>
     <row r="19" spans="2:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B19" s="109"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="55"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="53"/>
       <c r="T19" s="16"/>
       <c r="U19" s="16"/>
       <c r="V19" s="4"/>
@@ -2655,86 +2609,86 @@
       <c r="AD19" s="4"/>
     </row>
     <row r="20" spans="2:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B20" s="110"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="58"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="56"/>
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
     </row>
     <row r="21" spans="2:30" s="3" customFormat="1" ht="58.5" customHeight="1">
-      <c r="B21" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="68"/>
+      <c r="B21" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="66"/>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
     </row>
     <row r="22" spans="2:30" s="3" customFormat="1" ht="67.5" customHeight="1">
-      <c r="B22" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="85"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="68"/>
+      <c r="B22" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="83"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="66"/>
       <c r="T22" s="19"/>
       <c r="U22" s="16"/>
     </row>
@@ -2761,34 +2715,34 @@
       <c r="U23" s="16"/>
     </row>
     <row r="24" spans="2:30" s="3" customFormat="1" ht="47.25" customHeight="1">
-      <c r="B24" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="81" t="s">
+      <c r="B24" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="91"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="91"/>
-      <c r="P24" s="91" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="91"/>
-      <c r="S24" s="91"/>
+      <c r="C24" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="89"/>
+      <c r="S24" s="89"/>
       <c r="T24" s="23"/>
       <c r="U24" s="23"/>
       <c r="V24" s="8"/>
@@ -2799,34 +2753,34 @@
       <c r="AA24" s="8"/>
     </row>
     <row r="25" spans="2:30" s="3" customFormat="1" ht="67.5" customHeight="1">
-      <c r="B25" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="68"/>
+      <c r="B25" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="65"/>
+      <c r="S25" s="66"/>
       <c r="T25" s="23"/>
       <c r="U25" s="23"/>
       <c r="V25" s="8"/>
@@ -2837,59 +2791,59 @@
       <c r="AA25" s="8"/>
     </row>
     <row r="26" spans="2:30" s="3" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="65"/>
-      <c r="S26" s="65"/>
-      <c r="T26" s="73"/>
-      <c r="U26" s="73"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="71"/>
     </row>
     <row r="27" spans="2:30" s="3" customFormat="1" ht="39" customHeight="1">
-      <c r="B27" s="69" t="s">
-        <v>15</v>
+      <c r="B27" s="67" t="s">
+        <v>14</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="78"/>
+        <v>29</v>
+      </c>
+      <c r="D27" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="76"/>
       <c r="F27" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="80"/>
+        <v>30</v>
+      </c>
+      <c r="G27" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="78"/>
       <c r="I27" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="J27" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="78"/>
+      <c r="K27" s="76"/>
       <c r="L27" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="77" t="s">
+      <c r="M27" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="N27" s="78"/>
+      <c r="N27" s="76"/>
       <c r="O27" s="24"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
@@ -2899,42 +2853,42 @@
       <c r="U27" s="14"/>
     </row>
     <row r="28" spans="2:30" s="3" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B28" s="70"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>18</v>
-      </c>
       <c r="F28" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" s="26" t="s">
-        <v>18</v>
-      </c>
       <c r="I28" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J28" s="25" t="s">
         <v>6</v>
       </c>
       <c r="K28" s="26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L28" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M28" s="25" t="s">
         <v>6</v>
       </c>
       <c r="N28" s="30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
@@ -2945,43 +2899,27 @@
       <c r="U28" s="14"/>
     </row>
     <row r="29" spans="2:30" s="3" customFormat="1" ht="61.5" customHeight="1" thickBot="1">
-      <c r="B29" s="71"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>7</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
       <c r="F29" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G29" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="33" t="s">
-        <v>7</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
       <c r="I29" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="J29" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="33" t="s">
-        <v>7</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
       <c r="L29" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="M29" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="N29" s="34" t="s">
-        <v>22</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
@@ -2991,34 +2929,34 @@
       <c r="U29" s="14"/>
     </row>
     <row r="30" spans="2:30" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="B30" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="64"/>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="64"/>
+      <c r="B30" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="62"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
     </row>
     <row r="31" spans="2:30" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="R31" s="63"/>
-      <c r="S31" s="63"/>
-      <c r="T31" s="63"/>
-      <c r="U31" s="63"/>
+      <c r="R31" s="61"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="61"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>

--- a/controller/src/main/resources/jxls_templates/mubiaoguanli.xlsx
+++ b/controller/src/main/resources/jxls_templates/mubiaoguanli.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud0522\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
     <definedName name="MYNAME">目標管理!$C$6</definedName>
     <definedName name="MYRANK">目標管理!$I$6</definedName>
     <definedName name="MYTEAM">目標管理!$L$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">目標管理!$A$1:$T$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">目標管理!$A$1:$S$31</definedName>
     <definedName name="RNGBOSS03">目標管理!$N$29</definedName>
     <definedName name="RNGBOSS03AREA">目標管理!$C$29:$N$29</definedName>
     <definedName name="RNGBOSS04">目標管理!$E$29</definedName>
@@ -1083,7 +1083,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1222,6 +1222,87 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1231,44 +1312,172 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1285,206 +1494,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1524,8 +1536,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="17917886" y="13255534"/>
-          <a:ext cx="581297" cy="483870"/>
+          <a:off x="18849975" y="13918883"/>
+          <a:ext cx="639128" cy="483870"/>
           <a:chOff x="859" y="2"/>
           <a:chExt cx="49" cy="51"/>
         </a:xfrm>
@@ -1535,7 +1547,7 @@
           <xdr:cNvPr id="11" name="FBOX">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31716C17-4967-4C74-A81A-32B08861AFD0}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31716C17-4967-4C74-A81A-32B08861AFD0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1591,7 +1603,7 @@
           <xdr:cNvPr id="12" name="LBOX">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC99D1DE-4A4B-49BF-A81A-D076BAAA364E}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC99D1DE-4A4B-49BF-A81A-D076BAAA364E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1635,7 +1647,7 @@
           <xdr:cNvPr id="13" name="RBOX">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B79335FF-14CC-42C2-9FF0-B6939FAEF840}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79335FF-14CC-42C2-9FF0-B6939FAEF840}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1695,7 +1707,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1627D56E-11F1-4D0C-B2AC-5E29D3FD8946}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1627D56E-11F1-4D0C-B2AC-5E29D3FD8946}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1746,7 +1758,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2037,22 +2049,23 @@
   </sheetPr>
   <dimension ref="A1:AD31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="40" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24:O24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="1" customWidth="1"/>
-    <col min="3" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.875" style="1" customWidth="1"/>
-    <col min="10" max="19" width="14" style="1" customWidth="1"/>
-    <col min="20" max="21" width="6.625" style="1" customWidth="1"/>
+    <col min="3" max="7" width="14.625" style="1" customWidth="1"/>
+    <col min="8" max="15" width="15.625" style="1" customWidth="1"/>
+    <col min="16" max="19" width="14.625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="0.125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.625" style="1" customWidth="1"/>
     <col min="22" max="16384" width="7.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="7.5" customHeight="1">
+    <row r="1" spans="1:30" ht="0.95" customHeight="1">
       <c r="A1" s="43" t="s">
         <v>38</v>
       </c>
@@ -2062,30 +2075,30 @@
       <c r="A2" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
     </row>
-    <row r="3" spans="1:30" ht="9.75" customHeight="1">
+    <row r="3" spans="1:30" ht="0.95" customHeight="1">
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -2108,28 +2121,28 @@
       <c r="U3" s="10"/>
     </row>
     <row r="4" spans="1:30" s="2" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="100" t="s">
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="100" t="s">
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="102"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="79"/>
       <c r="P4" s="34"/>
       <c r="Q4" s="35"/>
       <c r="R4" s="35"/>
@@ -2137,27 +2150,27 @@
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
     </row>
-    <row r="5" spans="1:30" s="2" customFormat="1" ht="35.25" customHeight="1">
-      <c r="B5" s="104"/>
-      <c r="C5" s="94" t="s">
+    <row r="5" spans="1:30" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="81"/>
+      <c r="C5" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="94" t="s">
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="94" t="s">
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="96"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="73"/>
       <c r="P5" s="36"/>
       <c r="Q5" s="36"/>
       <c r="R5" s="36"/>
@@ -2166,28 +2179,28 @@
       <c r="U5" s="12"/>
     </row>
     <row r="6" spans="1:30" s="2" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="47" t="s">
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="97" t="s">
+      <c r="I6" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="98"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
       <c r="P6" s="36"/>
       <c r="Q6" s="36"/>
       <c r="R6" s="36"/>
@@ -2195,21 +2208,21 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
     </row>
-    <row r="7" spans="1:30" s="2" customFormat="1" ht="43.5" customHeight="1">
-      <c r="B7" s="47"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
+    <row r="7" spans="1:30" s="2" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B7" s="83"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
       <c r="P7" s="36"/>
       <c r="Q7" s="36"/>
       <c r="R7" s="36"/>
@@ -2224,9 +2237,9 @@
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
       <c r="M8" s="33"/>
@@ -2243,87 +2256,87 @@
       <c r="B9" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="59"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="119"/>
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
     </row>
     <row r="10" spans="1:30" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
       <c r="G10" s="38"/>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="44" t="s">
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="44" t="s">
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="46"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="67"/>
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
     </row>
     <row r="11" spans="1:30" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B11" s="107"/>
-      <c r="C11" s="44" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
       <c r="G11" s="38"/>
-      <c r="H11" s="44" t="s">
+      <c r="H11" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="44" t="s">
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="44" t="s">
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="46"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="67"/>
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="4"/>
@@ -2336,33 +2349,33 @@
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
     </row>
-    <row r="12" spans="1:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B12" s="107"/>
-      <c r="C12" s="48" t="s">
+    <row r="12" spans="1:30" s="3" customFormat="1" ht="63.95" customHeight="1">
+      <c r="B12" s="45"/>
+      <c r="C12" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="109" t="s">
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="48" t="s">
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="48" t="s">
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="50"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="49"/>
       <c r="T12" s="16"/>
       <c r="U12" s="17"/>
       <c r="V12" s="5"/>
@@ -2375,25 +2388,25 @@
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
     </row>
-    <row r="13" spans="1:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B13" s="107"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="53"/>
+    <row r="13" spans="1:30" s="3" customFormat="1" ht="63.95" customHeight="1">
+      <c r="B13" s="45"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="52"/>
       <c r="T13" s="16"/>
       <c r="U13" s="17"/>
       <c r="V13" s="5"/>
@@ -2406,25 +2419,25 @@
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
     </row>
-    <row r="14" spans="1:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B14" s="107"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="56"/>
+    <row r="14" spans="1:30" s="3" customFormat="1" ht="63.95" customHeight="1">
+      <c r="B14" s="45"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="55"/>
       <c r="T14" s="16"/>
       <c r="U14" s="18"/>
       <c r="V14" s="4"/>
@@ -2437,33 +2450,33 @@
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
     </row>
-    <row r="15" spans="1:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B15" s="107"/>
-      <c r="C15" s="48" t="s">
+    <row r="15" spans="1:30" s="3" customFormat="1" ht="63.95" customHeight="1">
+      <c r="B15" s="45"/>
+      <c r="C15" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="48" t="s">
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="48" t="s">
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="48" t="s">
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="50"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="49"/>
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
       <c r="V15" s="4"/>
@@ -2476,25 +2489,25 @@
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
     </row>
-    <row r="16" spans="1:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B16" s="107"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="53"/>
+    <row r="16" spans="1:30" s="3" customFormat="1" ht="63.95" customHeight="1">
+      <c r="B16" s="45"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="52"/>
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
       <c r="V16" s="4"/>
@@ -2507,25 +2520,25 @@
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
     </row>
-    <row r="17" spans="2:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B17" s="107"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="56"/>
+    <row r="17" spans="2:30" s="3" customFormat="1" ht="63.95" customHeight="1">
+      <c r="B17" s="45"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="55"/>
       <c r="T17" s="16"/>
       <c r="U17" s="17"/>
       <c r="V17" s="5"/>
@@ -2538,33 +2551,33 @@
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
     </row>
-    <row r="18" spans="2:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B18" s="107"/>
-      <c r="C18" s="48" t="s">
+    <row r="18" spans="2:30" s="3" customFormat="1" ht="63.95" customHeight="1">
+      <c r="B18" s="45"/>
+      <c r="C18" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="48" t="s">
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="48" t="s">
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="48" t="s">
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="50"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="49"/>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
       <c r="V18" s="4"/>
@@ -2577,25 +2590,25 @@
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
     </row>
-    <row r="19" spans="2:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B19" s="107"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="53"/>
+    <row r="19" spans="2:30" s="3" customFormat="1" ht="63.95" customHeight="1">
+      <c r="B19" s="45"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="52"/>
       <c r="T19" s="16"/>
       <c r="U19" s="16"/>
       <c r="V19" s="4"/>
@@ -2608,57 +2621,57 @@
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
     </row>
-    <row r="20" spans="2:30" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B20" s="108"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="56"/>
+    <row r="20" spans="2:30" s="3" customFormat="1" ht="63.95" customHeight="1">
+      <c r="B20" s="46"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="55"/>
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
     </row>
-    <row r="21" spans="2:30" s="3" customFormat="1" ht="58.5" customHeight="1">
+    <row r="21" spans="2:30" s="3" customFormat="1" ht="60" customHeight="1">
       <c r="B21" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="64" t="s">
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="90" t="s">
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="90" t="s">
+      <c r="M21" s="96"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="66"/>
+      <c r="Q21" s="96"/>
+      <c r="R21" s="96"/>
+      <c r="S21" s="97"/>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
     </row>
@@ -2666,33 +2679,33 @@
       <c r="B22" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="83"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="64" t="s">
+      <c r="C22" s="88"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="64" t="s">
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="64" t="s">
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
-      <c r="S22" s="66"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="96"/>
+      <c r="S22" s="97"/>
       <c r="T22" s="19"/>
       <c r="U22" s="16"/>
     </row>
-    <row r="23" spans="2:30" s="3" customFormat="1" ht="22.5" customHeight="1">
+    <row r="23" spans="2:30" s="3" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B23" s="20"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -2718,31 +2731,31 @@
       <c r="B24" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="79" t="s">
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="89" t="s">
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="89" t="s">
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="Q24" s="89"/>
-      <c r="R24" s="89"/>
-      <c r="S24" s="89"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="94"/>
+      <c r="S24" s="94"/>
       <c r="T24" s="23"/>
       <c r="U24" s="23"/>
       <c r="V24" s="8"/>
@@ -2756,31 +2769,31 @@
       <c r="B25" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="C25" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="64" t="s">
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="64" t="s">
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="64" t="s">
+      <c r="M25" s="107"/>
+      <c r="N25" s="107"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="65"/>
-      <c r="S25" s="66"/>
+      <c r="Q25" s="107"/>
+      <c r="R25" s="107"/>
+      <c r="S25" s="108"/>
       <c r="T25" s="23"/>
       <c r="U25" s="23"/>
       <c r="V25" s="8"/>
@@ -2790,60 +2803,60 @@
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
     </row>
-    <row r="26" spans="2:30" s="3" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
+    <row r="26" spans="2:30" s="3" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="63"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105"/>
+      <c r="O26" s="101"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="101"/>
+      <c r="R26" s="101"/>
+      <c r="S26" s="101"/>
+      <c r="T26" s="109"/>
+      <c r="U26" s="109"/>
     </row>
     <row r="27" spans="2:30" s="3" customFormat="1" ht="39" customHeight="1">
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="102" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="75" t="s">
+      <c r="D27" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="76"/>
+      <c r="E27" s="114"/>
       <c r="F27" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="77" t="s">
+      <c r="G27" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="78"/>
+      <c r="H27" s="116"/>
       <c r="I27" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="75" t="s">
+      <c r="J27" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="76"/>
+      <c r="K27" s="114"/>
       <c r="L27" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="75" t="s">
+      <c r="M27" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="N27" s="76"/>
+      <c r="N27" s="114"/>
       <c r="O27" s="24"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
@@ -2853,7 +2866,7 @@
       <c r="U27" s="14"/>
     </row>
     <row r="28" spans="2:30" s="3" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B28" s="68"/>
+      <c r="B28" s="103"/>
       <c r="C28" s="28" t="s">
         <v>15</v>
       </c>
@@ -2899,7 +2912,7 @@
       <c r="U28" s="14"/>
     </row>
     <row r="29" spans="2:30" s="3" customFormat="1" ht="61.5" customHeight="1" thickBot="1">
-      <c r="B29" s="69"/>
+      <c r="B29" s="104"/>
       <c r="C29" s="31" t="s">
         <v>67</v>
       </c>
@@ -2929,60 +2942,64 @@
       <c r="U29" s="14"/>
     </row>
     <row r="30" spans="2:30" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="100"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="100"/>
+      <c r="M30" s="100"/>
+      <c r="N30" s="100"/>
+      <c r="O30" s="100"/>
+      <c r="P30" s="100"/>
+      <c r="Q30" s="100"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
     </row>
-    <row r="31" spans="2:30" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="R31" s="61"/>
-      <c r="S31" s="61"/>
-      <c r="T31" s="61"/>
-      <c r="U31" s="61"/>
+    <row r="31" spans="2:30" s="3" customFormat="1" ht="0.95" customHeight="1">
+      <c r="R31" s="99"/>
+      <c r="S31" s="99"/>
+      <c r="T31" s="99"/>
+      <c r="U31" s="99"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="64">
-    <mergeCell ref="B10:B20"/>
-    <mergeCell ref="H12:K14"/>
-    <mergeCell ref="C15:G17"/>
-    <mergeCell ref="C18:G20"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H18:K20"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B2:S2"/>
-    <mergeCell ref="M6:O7"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="I6:K7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G7"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="L12:O14"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="C9:S9"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="P12:S14"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="B30:Q30"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="L25:O25"/>
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C22:G22"/>
@@ -2999,37 +3016,33 @@
     <mergeCell ref="L18:O20"/>
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:O21"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="B30:Q30"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M26:Q26"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="L12:O14"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="C9:S9"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="P12:S14"/>
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="M6:O7"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="I6:K7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G7"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="H12:K14"/>
+    <mergeCell ref="C15:G17"/>
+    <mergeCell ref="C18:G20"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H18:K20"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.39370078740157483" top="0.31496062992125984" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.27559055118110237"/>
-  <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0.31496062992125984" footer="0.27559055118110237"/>
+  <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
